--- a/papers_processed/Paper16_data.xlsx
+++ b/papers_processed/Paper16_data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Downloads\extracted data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\pulpit\Master Project 3\papers_processed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F980D07C-A15B-4CD6-9CE0-CAE1F1BBEF5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{753C437B-84D0-4B17-A080-F433D17C5799}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{407FF39A-A807-EF42-9CD3-B8A534822912}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{407FF39A-A807-EF42-9CD3-B8A534822912}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,15 +30,6 @@
     <t>doi</t>
   </si>
   <si>
-    <t>selection_type</t>
-  </si>
-  <si>
-    <t>selection_value</t>
-  </si>
-  <si>
-    <t>farming_practice_used</t>
-  </si>
-  <si>
     <t>farming_practice_compared</t>
   </si>
   <si>
@@ -145,6 +136,15 @@
   </si>
   <si>
     <t>400-800</t>
+  </si>
+  <si>
+    <t>farming practice</t>
+  </si>
+  <si>
+    <t>selection</t>
+  </si>
+  <si>
+    <t>selection type</t>
   </si>
 </sst>
 </file>
@@ -549,7 +549,7 @@
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:L9"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -577,186 +577,186 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="H2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M2" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H3" s="5">
         <v>7.5999999999999998E-2</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H4" s="5">
         <v>4.9000000000000002E-2</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H5" s="5">
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="J5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M5" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H6" s="5">
         <v>0.06</v>
@@ -765,80 +765,80 @@
         <v>8</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H7" s="5">
         <v>0.112</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D8" s="3">
         <v>4</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H8" s="5">
         <v>0</v>
@@ -847,39 +847,39 @@
         <v>9</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D9" s="3">
         <v>4</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H9" s="5">
         <v>0</v>
@@ -888,16 +888,16 @@
         <v>9</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">

--- a/papers_processed/Paper16_data.xlsx
+++ b/papers_processed/Paper16_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\pulpit\Master Project 3\papers_processed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{753C437B-84D0-4B17-A080-F433D17C5799}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F62F2DB-34B8-4DA1-BC22-21F3B84865F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{407FF39A-A807-EF42-9CD3-B8A534822912}"/>
+    <workbookView xWindow="1575" yWindow="4095" windowWidth="21600" windowHeight="11385" xr2:uid="{407FF39A-A807-EF42-9CD3-B8A534822912}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="39">
   <si>
     <t>doi</t>
   </si>
@@ -36,9 +36,6 @@
     <t>results_detailed</t>
   </si>
   <si>
-    <t>results_actual_percentage</t>
-  </si>
-  <si>
     <t>crop_type</t>
   </si>
   <si>
@@ -99,52 +96,52 @@
     <t>Highest yield benefit found in wet regions.</t>
   </si>
   <si>
-    <t>Moderate benefit.</t>
-  </si>
-  <si>
-    <t>Soil pH</t>
-  </si>
-  <si>
     <t>Strongest soil-based response found in acidic soils.</t>
   </si>
   <si>
-    <t>Confidence interval overlaps zero (non-significant).</t>
-  </si>
-  <si>
     <t>yearly temperature</t>
   </si>
   <si>
     <t>yearly precipitation</t>
   </si>
   <si>
-    <t>≤6.5</t>
-  </si>
-  <si>
-    <t>6.5-8.0</t>
-  </si>
-  <si>
-    <t>&gt;8.0</t>
-  </si>
-  <si>
     <t>&lt;10</t>
   </si>
   <si>
-    <t>≥800</t>
-  </si>
-  <si>
     <t>10-15</t>
   </si>
   <si>
-    <t>400-800</t>
-  </si>
-  <si>
-    <t>farming practice</t>
-  </si>
-  <si>
     <t>selection</t>
   </si>
   <si>
     <t>selection type</t>
+  </si>
+  <si>
+    <t>results_actual</t>
+  </si>
+  <si>
+    <t>"+11.2"</t>
+  </si>
+  <si>
+    <t>"+9.5"</t>
+  </si>
+  <si>
+    <t>"+4.9"</t>
+  </si>
+  <si>
+    <t>"+7.6"</t>
+  </si>
+  <si>
+    <t>&lt;6.5</t>
+  </si>
+  <si>
+    <t>&gt;800</t>
+  </si>
+  <si>
+    <t>soil ph</t>
+  </si>
+  <si>
+    <t>farming_practice</t>
   </si>
 </sst>
 </file>
@@ -546,10 +543,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B402C330-569C-7F44-A4F4-DD2BA1353772}">
-  <dimension ref="A1:M16"/>
+  <dimension ref="A1:M12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -569,86 +566,124 @@
     <col min="13" max="13" width="58.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="1"/>
+    <row r="1" spans="1:13" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="2" spans="1:13" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="K2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="M2" s="2" t="s">
+      <c r="B2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>16</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C3" s="4" t="s">
+      <c r="H3" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="I3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J3" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" s="3" t="s">
+      <c r="K3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="5">
-        <v>7.5999999999999998E-2</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L3" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M3" s="1" t="s">
         <v>21</v>
@@ -656,249 +691,145 @@
     </row>
     <row r="4" spans="1:13" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D4" s="3" t="s">
+      <c r="H4" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" s="3" t="s">
+      <c r="K4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="5">
-        <v>4.9000000000000002E-2</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L4" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M4" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H5" s="5">
-        <v>9.5000000000000001E-2</v>
+      <c r="H5" s="5" t="s">
+        <v>31</v>
       </c>
       <c r="I5" s="3" t="s">
         <v>11</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M5" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H6" s="5">
-        <v>0.06</v>
-      </c>
-      <c r="I6" s="3">
-        <v>8</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L6" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>24</v>
-      </c>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H7" s="5">
-        <v>0.112</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="K7" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L7" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>26</v>
-      </c>
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D8" s="3">
-        <v>4</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H8" s="5">
-        <v>0</v>
-      </c>
-      <c r="I8" s="3">
-        <v>9</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="K8" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L8" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M8" s="1" t="s">
-        <v>27</v>
-      </c>
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D9" s="3">
-        <v>4</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H9" s="5">
-        <v>0</v>
-      </c>
-      <c r="I9" s="3">
-        <v>9</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="K9" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L9" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M9" s="1" t="s">
-        <v>27</v>
-      </c>
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
@@ -945,66 +876,6 @@
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
-      <c r="M16" s="1"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
